--- a/Lab3/ExecutionTime.xlsx
+++ b/Lab3/ExecutionTime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/805fd1da7aba8867/Documents/Universitet/Year 2/ID1021 Algoritmer och Datastrukturer/Lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{F9D85B67-9C5A-47A9-B46D-AE66EA5C1378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11D01A13-765A-4D77-9E41-41906B0134FD}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{F9D85B67-9C5A-47A9-B46D-AE66EA5C1378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF59097B-FAC3-48D1-9101-394D3F066248}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6355DACB-2D77-410C-9154-748C17C833A6}"/>
   </bookViews>
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +242,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -810,7 +819,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$G$4</c:f>
+              <c:f>Blad1!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -845,7 +854,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$F$5:$F$9</c:f>
+              <c:f>Blad1!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -869,7 +878,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$G$5:$G$9</c:f>
+              <c:f>Blad1!$I$5:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -903,7 +912,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$H$4</c:f>
+              <c:f>Blad1!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -938,7 +947,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$F$5:$F$9</c:f>
+              <c:f>Blad1!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -962,7 +971,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$H$5:$H$9</c:f>
+              <c:f>Blad1!$J$5:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1274,7 +1283,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$N$4</c:f>
+              <c:f>Blad1!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1309,7 +1318,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$M$5:$M$9</c:f>
+              <c:f>Blad1!$P$5:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1333,7 +1342,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$N$5:$N$9</c:f>
+              <c:f>Blad1!$Q$5:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1367,7 +1376,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$O$4</c:f>
+              <c:f>Blad1!$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1402,7 +1411,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$M$5:$M$9</c:f>
+              <c:f>Blad1!$P$5:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1426,7 +1435,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$O$5:$O$9</c:f>
+              <c:f>Blad1!$R$5:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1460,7 +1469,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$P$4</c:f>
+              <c:f>Blad1!$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1495,7 +1504,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$M$5:$M$9</c:f>
+              <c:f>Blad1!$P$5:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1519,7 +1528,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$P$5:$P$9</c:f>
+              <c:f>Blad1!$S$5:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1553,7 +1562,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$Q$4</c:f>
+              <c:f>Blad1!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1588,7 +1597,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$M$5:$M$9</c:f>
+              <c:f>Blad1!$P$5:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1612,7 +1621,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$Q$5:$Q$9</c:f>
+              <c:f>Blad1!$T$5:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3478,15 +3487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>44729</xdr:rowOff>
+      <xdr:rowOff>6629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>646042</xdr:colOff>
+      <xdr:colOff>637759</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>120929</xdr:rowOff>
+      <xdr:rowOff>82829</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3513,16 +3522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1094131</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50939</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8281</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>127139</xdr:rowOff>
+      <xdr:rowOff>50939</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3549,16 +3558,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>52181</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>847311</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>128381</xdr:rowOff>
+      <xdr:rowOff>33131</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3883,10 +3892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A7D488-AB60-42BF-A09C-220C6A4BB5B7}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3905,40 +3914,40 @@
     <col min="12" max="12" width="7.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -3949,34 +3958,34 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="R4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="S4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="T4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="U4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>10</v>
       </c>
@@ -3989,38 +3998,38 @@
       <c r="D5" s="1">
         <v>10000</v>
       </c>
-      <c r="F5" s="7">
+      <c r="H5" s="7">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>958</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>405</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>10000</v>
       </c>
-      <c r="M5" s="7">
+      <c r="P5" s="7">
         <v>10</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>872</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5" s="1">
         <v>495</v>
       </c>
-      <c r="P5" s="1">
+      <c r="S5" s="1">
         <v>958</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="T5" s="1">
         <v>405</v>
       </c>
-      <c r="R5" s="1">
+      <c r="U5" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>50</v>
       </c>
@@ -4033,38 +4042,38 @@
       <c r="D6" s="1">
         <v>10000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="H6" s="8">
         <v>50</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>3617</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>1330</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>10000</v>
       </c>
-      <c r="M6" s="8">
+      <c r="P6" s="8">
         <v>50</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>4920</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6" s="1">
         <v>2313</v>
       </c>
-      <c r="P6" s="1">
+      <c r="S6" s="1">
         <v>3617</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="T6" s="1">
         <v>1330</v>
       </c>
-      <c r="R6" s="1">
+      <c r="U6" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>100</v>
       </c>
@@ -4077,38 +4086,38 @@
       <c r="D7" s="1">
         <v>10000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="H7" s="8">
         <v>100</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>7478</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>2364</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>10000</v>
       </c>
-      <c r="M7" s="8">
+      <c r="P7" s="8">
         <v>100</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <v>11900</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7" s="1">
         <v>4916</v>
       </c>
-      <c r="P7" s="1">
+      <c r="S7" s="1">
         <v>7478</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="T7" s="1">
         <v>2364</v>
       </c>
-      <c r="R7" s="1">
+      <c r="U7" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>500</v>
       </c>
@@ -4121,38 +4130,38 @@
       <c r="D8" s="1">
         <v>10000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="H8" s="8">
         <v>500</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>60819</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <v>10730</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>10000</v>
       </c>
-      <c r="M8" s="8">
+      <c r="P8" s="8">
         <v>500</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <v>110331</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8" s="1">
         <v>26105</v>
       </c>
-      <c r="P8" s="1">
+      <c r="S8" s="1">
         <v>60819</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="T8" s="1">
         <v>10730</v>
       </c>
-      <c r="R8" s="1">
+      <c r="U8" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1000</v>
       </c>
@@ -4165,73 +4174,73 @@
       <c r="D9" s="1">
         <v>10000</v>
       </c>
-      <c r="F9" s="9">
+      <c r="H9" s="9">
         <v>1000</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>137110</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>21382</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>10000</v>
       </c>
-      <c r="M9" s="9">
+      <c r="P9" s="9">
         <v>1000</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9" s="1">
         <v>374322</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9" s="1">
         <v>56992</v>
       </c>
-      <c r="P9" s="1">
+      <c r="S9" s="1">
         <v>137110</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="T9" s="1">
         <v>21382</v>
       </c>
-      <c r="R9" s="1">
+      <c r="U9" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -4263,7 +4272,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Chef-ID" prompt="Ange chefens ID för medarbetar numret. Detta ID måste finnas i kolumnen Employee ID." sqref="D11" xr:uid="{8DC8FA0B-7AB9-410E-B66B-5B78F41EDBA9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rolltyp" prompt="Välj den roll som bäst motsvarar den anställde. Då ändras färg på figuren." sqref="E11" xr:uid="{CE8DF635-4FE6-416C-B803-18C318A4F618}"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Lab3/ExecutionTime.xlsx
+++ b/Lab3/ExecutionTime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/805fd1da7aba8867/Documents/Universitet/Year 2/ID1021 Algoritmer och Datastrukturer/Lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{F9D85B67-9C5A-47A9-B46D-AE66EA5C1378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF59097B-FAC3-48D1-9101-394D3F066248}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{F9D85B67-9C5A-47A9-B46D-AE66EA5C1378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFAD8BBF-B9FD-4A09-8B82-C24B3A799BC9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6355DACB-2D77-410C-9154-748C17C833A6}"/>
   </bookViews>
@@ -3894,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A7D488-AB60-42BF-A09C-220C6A4BB5B7}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3908,9 +3908,9 @@
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
